--- a/Dataset/Salary_Data.xlsx
+++ b/Dataset/Salary_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nextn\Downloads\Git\Salary_Data_Analysis\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{164F54ED-CFBC-40E1-B069-F2A9C0FA6C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{63B32405-99E8-4D4C-BD40-2C67489AB7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3AB2E300-F04D-4739-97F9-6F3AE530D90E}"/>
   </bookViews>
@@ -1499,7 +1499,7 @@
   <dimension ref="A1:F1788"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="C393" sqref="C393"/>
+      <selection activeCell="D376" sqref="D376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Dataset/Salary_Data.xlsx
+++ b/Dataset/Salary_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nextn\Downloads\Git\Salary_Data_Analysis\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{63B32405-99E8-4D4C-BD40-2C67489AB7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{92F7DB7F-2C42-4E2D-8731-4AC5AAB72A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3AB2E300-F04D-4739-97F9-6F3AE530D90E}"/>
   </bookViews>
@@ -1498,8 +1498,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AFA52A-CF95-44BC-8BCA-595A6CB8A58E}">
   <dimension ref="A1:F1788"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="D376" sqref="D376"/>
+    <sheetView tabSelected="1" topLeftCell="A1754" workbookViewId="0">
+      <selection activeCell="E1766" sqref="E1766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37273,7 +37273,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1788" xr:uid="{80AFA52A-CF95-44BC-8BCA-595A6CB8A58E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dataset/Salary_Data.xlsx
+++ b/Dataset/Salary_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nextn\Downloads\Git\Salary_Data_Analysis\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{372C31F6-26C5-4D4B-850A-CBE8A8A8BED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C66E5C88-985B-4F49-B436-4C5D58DEDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3AB2E300-F04D-4739-97F9-6F3AE530D90E}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="D_Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">D_Types!$D$2:$D$1788</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Salary_Data!$A$1:$F$1788</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -37345,8 +37346,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AA81BB-9058-407D-8307-455D0CD7EA8A}">
   <dimension ref="A1:F1788"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1754" workbookViewId="0">
-      <selection activeCell="D1780" sqref="D1780"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Dataset/Salary_Data.xlsx
+++ b/Dataset/Salary_Data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nextn\Downloads\Git\Salary_Data_Analysis\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C66E5C88-985B-4F49-B436-4C5D58DEDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A20284B7-14B2-41CB-A6D7-2DC558141CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3AB2E300-F04D-4739-97F9-6F3AE530D90E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3AB2E300-F04D-4739-97F9-6F3AE530D90E}"/>
   </bookViews>
   <sheets>
     <sheet name="Salary_Data" sheetId="1" r:id="rId1"/>
     <sheet name="D_Types" sheetId="2" r:id="rId2"/>
+    <sheet name="Formulas" sheetId="3" r:id="rId3"/>
+    <sheet name="Basic Dashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">D_Types!$D$2:$D$1788</definedName>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5373" uniqueCount="211">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5379" uniqueCount="214">
   <si>
     <t>Age</t>
   </si>
@@ -696,11 +698,23 @@
   <si>
     <t>Salary Data Type</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -1190,7 +1204,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1199,6 +1213,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1255,6 +1274,2969 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Age</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Formulas!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Formulas!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Age</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Formulas!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35.139899272523785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7658-4A4C-88C0-D0BDE1AFAF12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Formulas!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Formulas!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Age</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Formulas!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7658-4A4C-88C0-D0BDE1AFAF12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Formulas!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Formulas!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Age</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Formulas!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7658-4A4C-88C0-D0BDE1AFAF12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1947447487"/>
+        <c:axId val="1947447967"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1947447487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1947447967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1947447967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1947447487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Years of Experience</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Formulas!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Formulas!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Years of Experience</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Formulas!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9.1561275881365418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BA1-4831-A499-C89C41653009}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Formulas!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Formulas!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Years of Experience</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Formulas!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3BA1-4831-A499-C89C41653009}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Formulas!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Formulas!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Years of Experience</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Formulas!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3BA1-4831-A499-C89C41653009}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1947457087"/>
+        <c:axId val="1947451327"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1947457087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1947451327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1947451327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1947457087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Formulas!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Salary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Formulas!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Formulas!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>113184.65976496923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B093-4381-9C90-21EDB197E961}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2018183871"/>
+        <c:axId val="2018179551"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2018183871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2018179551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2018179551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2018183871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A934F336-18B1-40F6-ABA4-2DA0911849D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8C5CA8-E8C5-4B53-BCF8-1950BF486242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A72EE0-6413-4886-B5E4-5438B6243DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1557,7 +4539,7 @@
   <dimension ref="A1:M1788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37346,8 +40328,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AA81BB-9058-407D-8307-455D0CD7EA8A}">
   <dimension ref="A1:F1788"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -73130,4 +76112,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4901C9F5-E0F6-49C6-85F6-10DBFC57E99B}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="4">
+        <f>AVERAGE(Salary_Data!A2:A1788)</f>
+        <v>35.139899272523785</v>
+      </c>
+      <c r="C2" s="4">
+        <f>AVERAGE(Salary_Data!E2:E1788)</f>
+        <v>9.1561275881365418</v>
+      </c>
+      <c r="D2" s="6">
+        <f>AVERAGE(Salary_Data!F2:F1788)</f>
+        <v>113184.65976496923</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3">
+        <f>MIN(Salary_Data!A2:A1788)</f>
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <f>MIN(Salary_Data!E2:E1788)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f>MIN(Salary_Data!F2:F1788)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4">
+        <f>MAX(Salary_Data!A2:A1788)</f>
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <f>MAX(Salary_Data!E2:E1788)</f>
+        <v>34</v>
+      </c>
+      <c r="D4" s="6">
+        <f>MAX(Salary_Data!F2:F1788)</f>
+        <v>250000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="160" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FBC4AA-673E-4543-A669-6ADD0FD583DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>